--- a/REopt_testing_matrix.xlsx
+++ b/REopt_testing_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt2/Documents/NRECA/MicrogridUp/microgridup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20383FB4-8857-9D49-9047-5ED49DC45700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9EC2EC-35C3-E74B-909B-165B02F6016E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="6280" windowWidth="25440" windowHeight="9880" xr2:uid="{C1AC0F01-DD5E-7745-BF43-574818A90406}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="U28" sqref="U28"/>

--- a/REopt_testing_matrix.xlsx
+++ b/REopt_testing_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt2/Documents/NRECA/MicrogridUp/microgridup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9EC2EC-35C3-E74B-909B-165B02F6016E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607DAF1-D487-3A47-BF14-E445744A0C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="6280" windowWidth="25440" windowHeight="9880" xr2:uid="{C1AC0F01-DD5E-7745-BF43-574818A90406}"/>
+    <workbookView xWindow="-1000" yWindow="-18680" windowWidth="28600" windowHeight="14080" xr2:uid="{C1AC0F01-DD5E-7745-BF43-574818A90406}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,10 +582,10 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
